--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lamb1-Itga6.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lamb1-Itga6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Itga6</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.8524358352506</v>
+        <v>45.113311</v>
       </c>
       <c r="H2">
-        <v>23.8524358352506</v>
+        <v>135.339933</v>
       </c>
       <c r="I2">
-        <v>0.2060080683867583</v>
+        <v>0.3130631765642909</v>
       </c>
       <c r="J2">
-        <v>0.2060080683867583</v>
+        <v>0.3130631765642908</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.661412757762</v>
+        <v>140.5599936666667</v>
       </c>
       <c r="N2">
-        <v>123.661412757762</v>
+        <v>421.679981</v>
       </c>
       <c r="O2">
-        <v>0.5092252425195443</v>
+        <v>0.5344312385120821</v>
       </c>
       <c r="P2">
-        <v>0.5092252425195443</v>
+        <v>0.534431238512082</v>
       </c>
       <c r="Q2">
-        <v>2949.625913100958</v>
+        <v>6341.126708442363</v>
       </c>
       <c r="R2">
-        <v>2949.625913100958</v>
+        <v>57070.14037598127</v>
       </c>
       <c r="S2">
-        <v>0.1049045085852298</v>
+        <v>0.1673107411837806</v>
       </c>
       <c r="T2">
-        <v>0.1049045085852298</v>
+        <v>0.1673107411837805</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.8524358352506</v>
+        <v>45.113311</v>
       </c>
       <c r="H3">
-        <v>23.8524358352506</v>
+        <v>135.339933</v>
       </c>
       <c r="I3">
-        <v>0.2060080683867583</v>
+        <v>0.3130631765642909</v>
       </c>
       <c r="J3">
-        <v>0.2060080683867583</v>
+        <v>0.3130631765642908</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.50086846028307</v>
+        <v>1.665024333333333</v>
       </c>
       <c r="N3">
-        <v>1.50086846028307</v>
+        <v>4.995073</v>
       </c>
       <c r="O3">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696814</v>
       </c>
       <c r="P3">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696813</v>
       </c>
       <c r="Q3">
-        <v>35.79936864605329</v>
+        <v>75.11476057223433</v>
       </c>
       <c r="R3">
-        <v>35.79936864605329</v>
+        <v>676.032845150109</v>
       </c>
       <c r="S3">
-        <v>0.001273217447268597</v>
+        <v>0.001981904296037925</v>
       </c>
       <c r="T3">
-        <v>0.001273217447268597</v>
+        <v>0.001981904296037924</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.8524358352506</v>
+        <v>45.113311</v>
       </c>
       <c r="H4">
-        <v>23.8524358352506</v>
+        <v>135.339933</v>
       </c>
       <c r="I4">
-        <v>0.2060080683867583</v>
+        <v>0.3130631765642909</v>
       </c>
       <c r="J4">
-        <v>0.2060080683867583</v>
+        <v>0.3130631765642908</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.5638146140276</v>
+        <v>40.23956933333334</v>
       </c>
       <c r="N4">
-        <v>38.5638146140276</v>
+        <v>120.718708</v>
       </c>
       <c r="O4">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="P4">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="Q4">
-        <v>919.8409136435927</v>
+        <v>1815.34020584073</v>
       </c>
       <c r="R4">
-        <v>919.8409136435927</v>
+        <v>16338.06185256656</v>
       </c>
       <c r="S4">
-        <v>0.0327144735858805</v>
+        <v>0.0478977836755034</v>
       </c>
       <c r="T4">
-        <v>0.0327144735858805</v>
+        <v>0.04789778367550339</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.8524358352506</v>
+        <v>45.113311</v>
       </c>
       <c r="H5">
-        <v>23.8524358352506</v>
+        <v>135.339933</v>
       </c>
       <c r="I5">
-        <v>0.2060080683867583</v>
+        <v>0.3130631765642909</v>
       </c>
       <c r="J5">
-        <v>0.2060080683867583</v>
+        <v>0.3130631765642908</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>53.2856914779053</v>
+        <v>53.92268366666667</v>
       </c>
       <c r="N5">
-        <v>53.2856914779053</v>
+        <v>161.768051</v>
       </c>
       <c r="O5">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="P5">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="Q5">
-        <v>1270.993536913696</v>
+        <v>2432.630798208954</v>
       </c>
       <c r="R5">
-        <v>1270.993536913696</v>
+        <v>21893.67718388058</v>
       </c>
       <c r="S5">
-        <v>0.0452033431808174</v>
+        <v>0.06418500695356848</v>
       </c>
       <c r="T5">
-        <v>0.0452033431808174</v>
+        <v>0.06418500695356846</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.8524358352506</v>
+        <v>45.113311</v>
       </c>
       <c r="H6">
-        <v>23.8524358352506</v>
+        <v>135.339933</v>
       </c>
       <c r="I6">
-        <v>0.2060080683867583</v>
+        <v>0.3130631765642909</v>
       </c>
       <c r="J6">
-        <v>0.2060080683867583</v>
+        <v>0.3130631765642908</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.4615837550832</v>
+        <v>21.668682</v>
       </c>
       <c r="N6">
-        <v>21.4615837550832</v>
+        <v>65.006046</v>
       </c>
       <c r="O6">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854792</v>
       </c>
       <c r="P6">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854791</v>
       </c>
       <c r="Q6">
-        <v>511.9110494409787</v>
+        <v>977.5459900261021</v>
       </c>
       <c r="R6">
-        <v>511.9110494409787</v>
+        <v>8797.913910234918</v>
       </c>
       <c r="S6">
-        <v>0.01820630095580432</v>
+        <v>0.02579256836403371</v>
       </c>
       <c r="T6">
-        <v>0.01820630095580432</v>
+        <v>0.0257925683640337</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.8524358352506</v>
+        <v>45.113311</v>
       </c>
       <c r="H7">
-        <v>23.8524358352506</v>
+        <v>135.339933</v>
       </c>
       <c r="I7">
-        <v>0.2060080683867583</v>
+        <v>0.3130631765642909</v>
       </c>
       <c r="J7">
-        <v>0.2060080683867583</v>
+        <v>0.3130631765642908</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.3688968199913</v>
+        <v>4.952613</v>
       </c>
       <c r="N7">
-        <v>4.3688968199913</v>
+        <v>14.857839</v>
       </c>
       <c r="O7">
-        <v>0.01799067706804354</v>
+        <v>0.0188306148173136</v>
       </c>
       <c r="P7">
-        <v>0.01799067706804354</v>
+        <v>0.01883061481731359</v>
       </c>
       <c r="Q7">
-        <v>104.2088310696729</v>
+        <v>223.428770531643</v>
       </c>
       <c r="R7">
-        <v>104.2088310696729</v>
+        <v>2010.858934784787</v>
       </c>
       <c r="S7">
-        <v>0.003706224631757597</v>
+        <v>0.005895172091366799</v>
       </c>
       <c r="T7">
-        <v>0.003706224631757597</v>
+        <v>0.005895172091366796</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>62.049608048272</v>
+        <v>62.15125133333334</v>
       </c>
       <c r="H8">
-        <v>62.049608048272</v>
+        <v>186.453754</v>
       </c>
       <c r="I8">
-        <v>0.5359083653539851</v>
+        <v>0.431297719864963</v>
       </c>
       <c r="J8">
-        <v>0.5359083653539851</v>
+        <v>0.431297719864963</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>123.661412757762</v>
+        <v>140.5599936666667</v>
       </c>
       <c r="N8">
-        <v>123.661412757762</v>
+        <v>421.679981</v>
       </c>
       <c r="O8">
-        <v>0.5092252425195443</v>
+        <v>0.5344312385120821</v>
       </c>
       <c r="P8">
-        <v>0.5092252425195443</v>
+        <v>0.534431238512082</v>
       </c>
       <c r="Q8">
-        <v>7673.142192314715</v>
+        <v>8735.979493788742</v>
       </c>
       <c r="R8">
-        <v>7673.142192314715</v>
+        <v>78623.81544409868</v>
       </c>
       <c r="S8">
-        <v>0.2728980673156356</v>
+        <v>0.2304989745948692</v>
       </c>
       <c r="T8">
-        <v>0.2728980673156356</v>
+        <v>0.2304989745948691</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>62.049608048272</v>
+        <v>62.15125133333334</v>
       </c>
       <c r="H9">
-        <v>62.049608048272</v>
+        <v>186.453754</v>
       </c>
       <c r="I9">
-        <v>0.5359083653539851</v>
+        <v>0.431297719864963</v>
       </c>
       <c r="J9">
-        <v>0.5359083653539851</v>
+        <v>0.431297719864963</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.50086846028307</v>
+        <v>1.665024333333333</v>
       </c>
       <c r="N9">
-        <v>1.50086846028307</v>
+        <v>4.995073</v>
       </c>
       <c r="O9">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696814</v>
       </c>
       <c r="P9">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696813</v>
       </c>
       <c r="Q9">
-        <v>93.12829969257798</v>
+        <v>103.4833458171158</v>
       </c>
       <c r="R9">
-        <v>93.12829969257798</v>
+        <v>931.350112354042</v>
       </c>
       <c r="S9">
-        <v>0.003312141540130794</v>
+        <v>0.002730409923174696</v>
       </c>
       <c r="T9">
-        <v>0.003312141540130794</v>
+        <v>0.002730409923174695</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>62.049608048272</v>
+        <v>62.15125133333334</v>
       </c>
       <c r="H10">
-        <v>62.049608048272</v>
+        <v>186.453754</v>
       </c>
       <c r="I10">
-        <v>0.5359083653539851</v>
+        <v>0.431297719864963</v>
       </c>
       <c r="J10">
-        <v>0.5359083653539851</v>
+        <v>0.431297719864963</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>38.5638146140276</v>
+        <v>40.23956933333334</v>
       </c>
       <c r="N10">
-        <v>38.5638146140276</v>
+        <v>120.718708</v>
       </c>
       <c r="O10">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="P10">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="Q10">
-        <v>2392.869581646636</v>
+        <v>2500.939587181093</v>
       </c>
       <c r="R10">
-        <v>2392.869581646636</v>
+        <v>22508.45628462984</v>
       </c>
       <c r="S10">
-        <v>0.0851032690132842</v>
+        <v>0.0659873355676741</v>
       </c>
       <c r="T10">
-        <v>0.0851032690132842</v>
+        <v>0.06598733556767408</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>62.049608048272</v>
+        <v>62.15125133333334</v>
       </c>
       <c r="H11">
-        <v>62.049608048272</v>
+        <v>186.453754</v>
       </c>
       <c r="I11">
-        <v>0.5359083653539851</v>
+        <v>0.431297719864963</v>
       </c>
       <c r="J11">
-        <v>0.5359083653539851</v>
+        <v>0.431297719864963</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>53.2856914779053</v>
+        <v>53.92268366666667</v>
       </c>
       <c r="N11">
-        <v>53.2856914779053</v>
+        <v>161.768051</v>
       </c>
       <c r="O11">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="P11">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="Q11">
-        <v>3306.356270785172</v>
+        <v>3351.362265134829</v>
       </c>
       <c r="R11">
-        <v>3306.356270785172</v>
+        <v>30162.26038621346</v>
       </c>
       <c r="S11">
-        <v>0.1175917523147078</v>
+        <v>0.08842575307768881</v>
       </c>
       <c r="T11">
-        <v>0.1175917523147078</v>
+        <v>0.0884257530776888</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>62.049608048272</v>
+        <v>62.15125133333334</v>
       </c>
       <c r="H12">
-        <v>62.049608048272</v>
+        <v>186.453754</v>
       </c>
       <c r="I12">
-        <v>0.5359083653539851</v>
+        <v>0.431297719864963</v>
       </c>
       <c r="J12">
-        <v>0.5359083653539851</v>
+        <v>0.431297719864963</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.4615837550832</v>
+        <v>21.668682</v>
       </c>
       <c r="N12">
-        <v>21.4615837550832</v>
+        <v>65.006046</v>
       </c>
       <c r="O12">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854792</v>
       </c>
       <c r="P12">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854791</v>
       </c>
       <c r="Q12">
-        <v>1331.682860098074</v>
+        <v>1346.735701044076</v>
       </c>
       <c r="R12">
-        <v>1331.682860098074</v>
+        <v>12120.62130939669</v>
       </c>
       <c r="S12">
-        <v>0.04736178083108002</v>
+        <v>0.03553364546719352</v>
       </c>
       <c r="T12">
-        <v>0.04736178083108002</v>
+        <v>0.03553364546719352</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>62.049608048272</v>
+        <v>62.15125133333334</v>
       </c>
       <c r="H13">
-        <v>62.049608048272</v>
+        <v>186.453754</v>
       </c>
       <c r="I13">
-        <v>0.5359083653539851</v>
+        <v>0.431297719864963</v>
       </c>
       <c r="J13">
-        <v>0.5359083653539851</v>
+        <v>0.431297719864963</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.3688968199913</v>
+        <v>4.952613</v>
       </c>
       <c r="N13">
-        <v>4.3688968199913</v>
+        <v>14.857839</v>
       </c>
       <c r="O13">
-        <v>0.01799067706804354</v>
+        <v>0.0188306148173136</v>
       </c>
       <c r="P13">
-        <v>0.01799067706804354</v>
+        <v>0.01883061481731359</v>
       </c>
       <c r="Q13">
-        <v>271.0883352838021</v>
+        <v>307.8110953197341</v>
       </c>
       <c r="R13">
-        <v>271.0883352838021</v>
+        <v>2770.299857877606</v>
       </c>
       <c r="S13">
-        <v>0.009641354339146639</v>
+        <v>0.008121601234362742</v>
       </c>
       <c r="T13">
-        <v>0.009641354339146639</v>
+        <v>0.008121601234362738</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.18961655156833</v>
+        <v>0.04294166666666666</v>
       </c>
       <c r="H14">
-        <v>0.18961655156833</v>
+        <v>0.128825</v>
       </c>
       <c r="I14">
-        <v>0.001637675069856839</v>
+        <v>0.0002979930817676315</v>
       </c>
       <c r="J14">
-        <v>0.001637675069856839</v>
+        <v>0.0002979930817676315</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>123.661412757762</v>
+        <v>140.5599936666667</v>
       </c>
       <c r="N14">
-        <v>123.661412757762</v>
+        <v>421.679981</v>
       </c>
       <c r="O14">
-        <v>0.5092252425195443</v>
+        <v>0.5344312385120821</v>
       </c>
       <c r="P14">
-        <v>0.5092252425195443</v>
+        <v>0.534431238512082</v>
       </c>
       <c r="Q14">
-        <v>23.44825064919472</v>
+        <v>6.035880394702777</v>
       </c>
       <c r="R14">
-        <v>23.44825064919472</v>
+        <v>54.322923552325</v>
       </c>
       <c r="S14">
-        <v>0.0008339454846160606</v>
+        <v>0.0001592568117571075</v>
       </c>
       <c r="T14">
-        <v>0.0008339454846160606</v>
+        <v>0.0001592568117571074</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.18961655156833</v>
+        <v>0.04294166666666666</v>
       </c>
       <c r="H15">
-        <v>0.18961655156833</v>
+        <v>0.128825</v>
       </c>
       <c r="I15">
-        <v>0.001637675069856839</v>
+        <v>0.0002979930817676315</v>
       </c>
       <c r="J15">
-        <v>0.001637675069856839</v>
+        <v>0.0002979930817676315</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.50086846028307</v>
+        <v>1.665024333333333</v>
       </c>
       <c r="N15">
-        <v>1.50086846028307</v>
+        <v>4.995073</v>
       </c>
       <c r="O15">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696814</v>
       </c>
       <c r="P15">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696813</v>
       </c>
       <c r="Q15">
-        <v>0.2845895017965447</v>
+        <v>0.07149891991388888</v>
       </c>
       <c r="R15">
-        <v>0.2845895017965447</v>
+        <v>0.6434902792249999</v>
       </c>
       <c r="S15">
-        <v>1.012152819172092E-05</v>
+        <v>1.886500275843092E-06</v>
       </c>
       <c r="T15">
-        <v>1.012152819172092E-05</v>
+        <v>1.886500275843092E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.18961655156833</v>
+        <v>0.04294166666666666</v>
       </c>
       <c r="H16">
-        <v>0.18961655156833</v>
+        <v>0.128825</v>
       </c>
       <c r="I16">
-        <v>0.001637675069856839</v>
+        <v>0.0002979930817676315</v>
       </c>
       <c r="J16">
-        <v>0.001637675069856839</v>
+        <v>0.0002979930817676315</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>38.5638146140276</v>
+        <v>40.23956933333334</v>
       </c>
       <c r="N16">
-        <v>38.5638146140276</v>
+        <v>120.718708</v>
       </c>
       <c r="O16">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="P16">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="Q16">
-        <v>7.312337542432282</v>
+        <v>1.727954173122222</v>
       </c>
       <c r="R16">
-        <v>7.312337542432282</v>
+        <v>15.5515875581</v>
       </c>
       <c r="S16">
-        <v>0.0002600659199158352</v>
+        <v>4.559210164524557E-05</v>
       </c>
       <c r="T16">
-        <v>0.0002600659199158352</v>
+        <v>4.559210164524556E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.18961655156833</v>
+        <v>0.04294166666666666</v>
       </c>
       <c r="H17">
-        <v>0.18961655156833</v>
+        <v>0.128825</v>
       </c>
       <c r="I17">
-        <v>0.001637675069856839</v>
+        <v>0.0002979930817676315</v>
       </c>
       <c r="J17">
-        <v>0.001637675069856839</v>
+        <v>0.0002979930817676315</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>53.2856914779053</v>
+        <v>53.92268366666667</v>
       </c>
       <c r="N17">
-        <v>53.2856914779053</v>
+        <v>161.768051</v>
       </c>
       <c r="O17">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="P17">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="Q17">
-        <v>10.10384906597435</v>
+        <v>2.315529907786111</v>
       </c>
       <c r="R17">
-        <v>10.10384906597435</v>
+        <v>20.839769170075</v>
       </c>
       <c r="S17">
-        <v>0.0003593470332551605</v>
+        <v>6.109529787334429E-05</v>
       </c>
       <c r="T17">
-        <v>0.0003593470332551605</v>
+        <v>6.109529787334427E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.18961655156833</v>
+        <v>0.04294166666666666</v>
       </c>
       <c r="H18">
-        <v>0.18961655156833</v>
+        <v>0.128825</v>
       </c>
       <c r="I18">
-        <v>0.001637675069856839</v>
+        <v>0.0002979930817676315</v>
       </c>
       <c r="J18">
-        <v>0.001637675069856839</v>
+        <v>0.0002979930817676315</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>21.4615837550832</v>
+        <v>21.668682</v>
       </c>
       <c r="N18">
-        <v>21.4615837550832</v>
+        <v>65.006046</v>
       </c>
       <c r="O18">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854792</v>
       </c>
       <c r="P18">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854791</v>
       </c>
       <c r="Q18">
-        <v>4.069471502833767</v>
+        <v>0.9304893195499999</v>
       </c>
       <c r="R18">
-        <v>4.069471502833767</v>
+        <v>8.37440387595</v>
       </c>
       <c r="S18">
-        <v>0.0001447322205538819</v>
+        <v>2.455097727510063E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001447322205538819</v>
+        <v>2.455097727510063E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.18961655156833</v>
+        <v>0.04294166666666666</v>
       </c>
       <c r="H19">
-        <v>0.18961655156833</v>
+        <v>0.128825</v>
       </c>
       <c r="I19">
-        <v>0.001637675069856839</v>
+        <v>0.0002979930817676315</v>
       </c>
       <c r="J19">
-        <v>0.001637675069856839</v>
+        <v>0.0002979930817676315</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.3688968199913</v>
+        <v>4.952613</v>
       </c>
       <c r="N19">
-        <v>4.3688968199913</v>
+        <v>14.857839</v>
       </c>
       <c r="O19">
-        <v>0.01799067706804354</v>
+        <v>0.0188306148173136</v>
       </c>
       <c r="P19">
-        <v>0.01799067706804354</v>
+        <v>0.01883061481731359</v>
       </c>
       <c r="Q19">
-        <v>0.8284151491645932</v>
+        <v>0.212673456575</v>
       </c>
       <c r="R19">
-        <v>0.8284151491645932</v>
+        <v>1.914061109175</v>
       </c>
       <c r="S19">
-        <v>2.946288332418004E-05</v>
+        <v>5.611392940990504E-06</v>
       </c>
       <c r="T19">
-        <v>2.946288332418004E-05</v>
+        <v>5.611392940990502E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>29.6923281340858</v>
+        <v>0.15088</v>
       </c>
       <c r="H20">
-        <v>29.6923281340858</v>
+        <v>0.45264</v>
       </c>
       <c r="I20">
-        <v>0.2564458911893998</v>
+        <v>0.001047029602416462</v>
       </c>
       <c r="J20">
-        <v>0.2564458911893998</v>
+        <v>0.001047029602416462</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>123.661412757762</v>
+        <v>140.5599936666667</v>
       </c>
       <c r="N20">
-        <v>123.661412757762</v>
+        <v>421.679981</v>
       </c>
       <c r="O20">
-        <v>0.5092252425195443</v>
+        <v>0.5344312385120821</v>
       </c>
       <c r="P20">
-        <v>0.5092252425195443</v>
+        <v>0.534431238512082</v>
       </c>
       <c r="Q20">
-        <v>3671.795245128093</v>
+        <v>21.20769184442666</v>
       </c>
       <c r="R20">
-        <v>3671.795245128093</v>
+        <v>190.86922659984</v>
       </c>
       <c r="S20">
-        <v>0.1305887211340628</v>
+        <v>0.0005595653271782428</v>
       </c>
       <c r="T20">
-        <v>0.1305887211340628</v>
+        <v>0.0005595653271782425</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>29.6923281340858</v>
+        <v>0.15088</v>
       </c>
       <c r="H21">
-        <v>29.6923281340858</v>
+        <v>0.45264</v>
       </c>
       <c r="I21">
-        <v>0.2564458911893998</v>
+        <v>0.001047029602416462</v>
       </c>
       <c r="J21">
-        <v>0.2564458911893998</v>
+        <v>0.001047029602416462</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.50086846028307</v>
+        <v>1.665024333333333</v>
       </c>
       <c r="N21">
-        <v>1.50086846028307</v>
+        <v>4.995073</v>
       </c>
       <c r="O21">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696814</v>
       </c>
       <c r="P21">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696813</v>
       </c>
       <c r="Q21">
-        <v>44.56427880882503</v>
+        <v>0.2512188714133333</v>
       </c>
       <c r="R21">
-        <v>44.56427880882503</v>
+        <v>2.26096984272</v>
       </c>
       <c r="S21">
-        <v>0.001584944635904733</v>
+        <v>6.628414398273762E-06</v>
       </c>
       <c r="T21">
-        <v>0.001584944635904733</v>
+        <v>6.628414398273761E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>29.6923281340858</v>
+        <v>0.15088</v>
       </c>
       <c r="H22">
-        <v>29.6923281340858</v>
+        <v>0.45264</v>
       </c>
       <c r="I22">
-        <v>0.2564458911893998</v>
+        <v>0.001047029602416462</v>
       </c>
       <c r="J22">
-        <v>0.2564458911893998</v>
+        <v>0.001047029602416462</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>38.5638146140276</v>
+        <v>40.23956933333334</v>
       </c>
       <c r="N22">
-        <v>38.5638146140276</v>
+        <v>120.718708</v>
       </c>
       <c r="O22">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="P22">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="Q22">
-        <v>1145.049437621761</v>
+        <v>6.071346221013333</v>
       </c>
       <c r="R22">
-        <v>1145.049437621761</v>
+        <v>54.64211598912</v>
       </c>
       <c r="S22">
-        <v>0.04072409590178196</v>
+        <v>0.0001601925782162155</v>
       </c>
       <c r="T22">
-        <v>0.04072409590178196</v>
+        <v>0.0001601925782162154</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>29.6923281340858</v>
+        <v>0.15088</v>
       </c>
       <c r="H23">
-        <v>29.6923281340858</v>
+        <v>0.45264</v>
       </c>
       <c r="I23">
-        <v>0.2564458911893998</v>
+        <v>0.001047029602416462</v>
       </c>
       <c r="J23">
-        <v>0.2564458911893998</v>
+        <v>0.001047029602416462</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>53.2856914779053</v>
+        <v>53.92268366666667</v>
       </c>
       <c r="N23">
-        <v>53.2856914779053</v>
+        <v>161.768051</v>
       </c>
       <c r="O23">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="P23">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="Q23">
-        <v>1582.176236213623</v>
+        <v>8.135854511626667</v>
       </c>
       <c r="R23">
-        <v>1582.176236213623</v>
+        <v>73.22269060464001</v>
       </c>
       <c r="S23">
-        <v>0.05627066802539911</v>
+        <v>0.0002146646662479376</v>
       </c>
       <c r="T23">
-        <v>0.05627066802539911</v>
+        <v>0.0002146646662479376</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>29.6923281340858</v>
+        <v>0.15088</v>
       </c>
       <c r="H24">
-        <v>29.6923281340858</v>
+        <v>0.45264</v>
       </c>
       <c r="I24">
-        <v>0.2564458911893998</v>
+        <v>0.001047029602416462</v>
       </c>
       <c r="J24">
-        <v>0.2564458911893998</v>
+        <v>0.001047029602416462</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>21.4615837550832</v>
+        <v>21.668682</v>
       </c>
       <c r="N24">
-        <v>21.4615837550832</v>
+        <v>65.006046</v>
       </c>
       <c r="O24">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854792</v>
       </c>
       <c r="P24">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854791</v>
       </c>
       <c r="Q24">
-        <v>637.2443871330956</v>
+        <v>3.26937074016</v>
       </c>
       <c r="R24">
-        <v>637.2443871330956</v>
+        <v>29.42433666144</v>
       </c>
       <c r="S24">
-        <v>0.02266382627843603</v>
+        <v>8.62624052303633E-05</v>
       </c>
       <c r="T24">
-        <v>0.02266382627843603</v>
+        <v>8.626240523036328E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.15088</v>
+      </c>
+      <c r="H25">
+        <v>0.45264</v>
+      </c>
+      <c r="I25">
+        <v>0.001047029602416462</v>
+      </c>
+      <c r="J25">
+        <v>0.001047029602416462</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.952613</v>
+      </c>
+      <c r="N25">
+        <v>14.857839</v>
+      </c>
+      <c r="O25">
+        <v>0.0188306148173136</v>
+      </c>
+      <c r="P25">
+        <v>0.01883061481731359</v>
+      </c>
+      <c r="Q25">
+        <v>0.74725024944</v>
+      </c>
+      <c r="R25">
+        <v>6.72525224496</v>
+      </c>
+      <c r="S25">
+        <v>1.97162111454294E-05</v>
+      </c>
+      <c r="T25">
+        <v>1.971621114542939E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.2238356666666666</v>
+      </c>
+      <c r="H26">
+        <v>0.6715069999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.001553304407983985</v>
+      </c>
+      <c r="J26">
+        <v>0.001553304407983985</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>140.5599936666667</v>
+      </c>
+      <c r="N26">
+        <v>421.679981</v>
+      </c>
+      <c r="O26">
+        <v>0.5344312385120821</v>
+      </c>
+      <c r="P26">
+        <v>0.534431238512082</v>
+      </c>
+      <c r="Q26">
+        <v>31.46233988904077</v>
+      </c>
+      <c r="R26">
+        <v>283.1610590013669</v>
+      </c>
+      <c r="S26">
+        <v>0.0008301343985451577</v>
+      </c>
+      <c r="T26">
+        <v>0.0008301343985451574</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.2238356666666666</v>
+      </c>
+      <c r="H27">
+        <v>0.6715069999999999</v>
+      </c>
+      <c r="I27">
+        <v>0.001553304407983985</v>
+      </c>
+      <c r="J27">
+        <v>0.001553304407983985</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.665024333333333</v>
+      </c>
+      <c r="N27">
+        <v>4.995073</v>
+      </c>
+      <c r="O27">
+        <v>0.006330684808696814</v>
+      </c>
+      <c r="P27">
+        <v>0.006330684808696813</v>
+      </c>
+      <c r="Q27">
+        <v>0.3726918316678888</v>
+      </c>
+      <c r="R27">
+        <v>3.354226485010999</v>
+      </c>
+      <c r="S27">
+        <v>9.833480618906014E-06</v>
+      </c>
+      <c r="T27">
+        <v>9.833480618906011E-06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.2238356666666666</v>
+      </c>
+      <c r="H28">
+        <v>0.6715069999999999</v>
+      </c>
+      <c r="I28">
+        <v>0.001553304407983985</v>
+      </c>
+      <c r="J28">
+        <v>0.001553304407983985</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>40.23956933333334</v>
+      </c>
+      <c r="N28">
+        <v>120.718708</v>
+      </c>
+      <c r="O28">
+        <v>0.152997181594965</v>
+      </c>
+      <c r="P28">
+        <v>0.152997181594965</v>
+      </c>
+      <c r="Q28">
+        <v>9.007050828106221</v>
+      </c>
+      <c r="R28">
+        <v>81.06345745295599</v>
+      </c>
+      <c r="S28">
+        <v>0.0002376511965805854</v>
+      </c>
+      <c r="T28">
+        <v>0.0002376511965805853</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.2238356666666666</v>
+      </c>
+      <c r="H29">
+        <v>0.6715069999999999</v>
+      </c>
+      <c r="I29">
+        <v>0.001553304407983985</v>
+      </c>
+      <c r="J29">
+        <v>0.001553304407983985</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>53.92268366666667</v>
+      </c>
+      <c r="N29">
+        <v>161.768051</v>
+      </c>
+      <c r="O29">
+        <v>0.2050225378083947</v>
+      </c>
+      <c r="P29">
+        <v>0.2050225378083947</v>
+      </c>
+      <c r="Q29">
+        <v>12.06981984698411</v>
+      </c>
+      <c r="R29">
+        <v>108.628378622857</v>
+      </c>
+      <c r="S29">
+        <v>0.0003184624117138428</v>
+      </c>
+      <c r="T29">
+        <v>0.0003184624117138427</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.2238356666666666</v>
+      </c>
+      <c r="H30">
+        <v>0.6715069999999999</v>
+      </c>
+      <c r="I30">
+        <v>0.001553304407983985</v>
+      </c>
+      <c r="J30">
+        <v>0.001553304407983985</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>21.668682</v>
+      </c>
+      <c r="N30">
+        <v>65.006046</v>
+      </c>
+      <c r="O30">
+        <v>0.08238774245854792</v>
+      </c>
+      <c r="P30">
+        <v>0.08238774245854791</v>
+      </c>
+      <c r="Q30">
+        <v>4.850223881258</v>
+      </c>
+      <c r="R30">
+        <v>43.65201493132199</v>
+      </c>
+      <c r="S30">
+        <v>0.0001279732435247118</v>
+      </c>
+      <c r="T30">
+        <v>0.0001279732435247118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.2238356666666666</v>
+      </c>
+      <c r="H31">
+        <v>0.6715069999999999</v>
+      </c>
+      <c r="I31">
+        <v>0.001553304407983985</v>
+      </c>
+      <c r="J31">
+        <v>0.001553304407983985</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>4.952613</v>
+      </c>
+      <c r="N31">
+        <v>14.857839</v>
+      </c>
+      <c r="O31">
+        <v>0.0188306148173136</v>
+      </c>
+      <c r="P31">
+        <v>0.01883061481731359</v>
+      </c>
+      <c r="Q31">
+        <v>1.108571432597</v>
+      </c>
+      <c r="R31">
+        <v>9.977142893372998</v>
+      </c>
+      <c r="S31">
+        <v>2.924967700078176E-05</v>
+      </c>
+      <c r="T31">
+        <v>2.924967700078174E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>36.42067833333333</v>
+      </c>
+      <c r="H32">
+        <v>109.262035</v>
+      </c>
+      <c r="I32">
+        <v>0.2527407764785781</v>
+      </c>
+      <c r="J32">
+        <v>0.252740776478578</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>140.5599936666667</v>
+      </c>
+      <c r="N32">
+        <v>421.679981</v>
+      </c>
+      <c r="O32">
+        <v>0.5344312385120821</v>
+      </c>
+      <c r="P32">
+        <v>0.534431238512082</v>
+      </c>
+      <c r="Q32">
+        <v>5119.290315869037</v>
+      </c>
+      <c r="R32">
+        <v>46073.61284282133</v>
+      </c>
+      <c r="S32">
+        <v>0.1350725661959518</v>
+      </c>
+      <c r="T32">
+        <v>0.1350725661959517</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>36.42067833333333</v>
+      </c>
+      <c r="H33">
+        <v>109.262035</v>
+      </c>
+      <c r="I33">
+        <v>0.2527407764785781</v>
+      </c>
+      <c r="J33">
+        <v>0.252740776478578</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.665024333333333</v>
+      </c>
+      <c r="N33">
+        <v>4.995073</v>
+      </c>
+      <c r="O33">
+        <v>0.006330684808696814</v>
+      </c>
+      <c r="P33">
+        <v>0.006330684808696813</v>
+      </c>
+      <c r="Q33">
+        <v>60.64131566150611</v>
+      </c>
+      <c r="R33">
+        <v>545.7718409535549</v>
+      </c>
+      <c r="S33">
+        <v>0.001600022194191171</v>
+      </c>
+      <c r="T33">
+        <v>0.001600022194191171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>36.42067833333333</v>
+      </c>
+      <c r="H34">
+        <v>109.262035</v>
+      </c>
+      <c r="I34">
+        <v>0.2527407764785781</v>
+      </c>
+      <c r="J34">
+        <v>0.252740776478578</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>40.23956933333334</v>
+      </c>
+      <c r="N34">
+        <v>120.718708</v>
+      </c>
+      <c r="O34">
+        <v>0.152997181594965</v>
+      </c>
+      <c r="P34">
+        <v>0.152997181594965</v>
+      </c>
+      <c r="Q34">
+        <v>1465.552410961198</v>
+      </c>
+      <c r="R34">
+        <v>13189.97169865078</v>
+      </c>
+      <c r="S34">
+        <v>0.03866862647534547</v>
+      </c>
+      <c r="T34">
+        <v>0.03866862647534546</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>29.6923281340858</v>
-      </c>
-      <c r="H25">
-        <v>29.6923281340858</v>
-      </c>
-      <c r="I25">
-        <v>0.2564458911893998</v>
-      </c>
-      <c r="J25">
-        <v>0.2564458911893998</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>4.3688968199913</v>
-      </c>
-      <c r="N25">
-        <v>4.3688968199913</v>
-      </c>
-      <c r="O25">
-        <v>0.01799067706804354</v>
-      </c>
-      <c r="P25">
-        <v>0.01799067706804354</v>
-      </c>
-      <c r="Q25">
-        <v>129.7227179631457</v>
-      </c>
-      <c r="R25">
-        <v>129.7227179631457</v>
-      </c>
-      <c r="S25">
-        <v>0.004613635213815123</v>
-      </c>
-      <c r="T25">
-        <v>0.004613635213815123</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>36.42067833333333</v>
+      </c>
+      <c r="H35">
+        <v>109.262035</v>
+      </c>
+      <c r="I35">
+        <v>0.2527407764785781</v>
+      </c>
+      <c r="J35">
+        <v>0.252740776478578</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>53.92268366666667</v>
+      </c>
+      <c r="N35">
+        <v>161.768051</v>
+      </c>
+      <c r="O35">
+        <v>0.2050225378083947</v>
+      </c>
+      <c r="P35">
+        <v>0.2050225378083947</v>
+      </c>
+      <c r="Q35">
+        <v>1963.900716693754</v>
+      </c>
+      <c r="R35">
+        <v>17675.10645024379</v>
+      </c>
+      <c r="S35">
+        <v>0.05181755540130231</v>
+      </c>
+      <c r="T35">
+        <v>0.05181755540130229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>36.42067833333333</v>
+      </c>
+      <c r="H36">
+        <v>109.262035</v>
+      </c>
+      <c r="I36">
+        <v>0.2527407764785781</v>
+      </c>
+      <c r="J36">
+        <v>0.252740776478578</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>21.668682</v>
+      </c>
+      <c r="N36">
+        <v>65.006046</v>
+      </c>
+      <c r="O36">
+        <v>0.08238774245854792</v>
+      </c>
+      <c r="P36">
+        <v>0.08238774245854791</v>
+      </c>
+      <c r="Q36">
+        <v>789.18809702929</v>
+      </c>
+      <c r="R36">
+        <v>7102.69287326361</v>
+      </c>
+      <c r="S36">
+        <v>0.02082274200129051</v>
+      </c>
+      <c r="T36">
+        <v>0.02082274200129051</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>36.42067833333333</v>
+      </c>
+      <c r="H37">
+        <v>109.262035</v>
+      </c>
+      <c r="I37">
+        <v>0.2527407764785781</v>
+      </c>
+      <c r="J37">
+        <v>0.252740776478578</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>4.952613</v>
+      </c>
+      <c r="N37">
+        <v>14.857839</v>
+      </c>
+      <c r="O37">
+        <v>0.0188306148173136</v>
+      </c>
+      <c r="P37">
+        <v>0.01883061481731359</v>
+      </c>
+      <c r="Q37">
+        <v>180.377524982485</v>
+      </c>
+      <c r="R37">
+        <v>1623.397724842365</v>
+      </c>
+      <c r="S37">
+        <v>0.004759264210496856</v>
+      </c>
+      <c r="T37">
+        <v>0.004759264210496853</v>
       </c>
     </row>
   </sheetData>
